--- a/USHPRR/Al_interfaces.xlsx
+++ b/USHPRR/Al_interfaces.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/USHPRR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06E88E5-9B64-7747-9B73-2921F78181A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48157492-456D-724D-AD73-98A9B72B2BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5300" yWindow="3440" windowWidth="21900" windowHeight="17440" activeTab="2" xr2:uid="{556651BE-7C6C-1F46-B546-EA16340C0BD9}"/>
+    <workbookView xWindow="5300" yWindow="3440" windowWidth="21900" windowHeight="17440" activeTab="1" xr2:uid="{556651BE-7C6C-1F46-B546-EA16340C0BD9}"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
     <sheet name="voids" sheetId="2" r:id="rId2"/>
     <sheet name="precipitates" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="39">
   <si>
     <t>Aluminum Interfaces</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>v_Mg</t>
+  </si>
+  <si>
+    <t>Mg/Si</t>
+  </si>
+  <si>
+    <t>B_sphere2</t>
   </si>
 </sst>
 </file>
@@ -503,7 +509,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -917,10 +923,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98A2971-2751-BE4B-B26E-9EC0057145A7}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1049,388 +1055,507 @@
         <v>0.60533292774048553</v>
       </c>
     </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <f>2*4*3.1416*D8^2</f>
+        <v>2513.2799999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>50000</v>
+      </c>
+      <c r="C10">
+        <v>399.95490000000001</v>
+      </c>
+      <c r="D10">
+        <v>-283458.49420000002</v>
+      </c>
+      <c r="E10">
+        <v>1455476.1791999999</v>
+      </c>
+      <c r="F10">
+        <v>6.6600000000000006E-2</v>
+      </c>
+      <c r="G10">
+        <v>77.237499999999997</v>
+      </c>
+      <c r="H10">
+        <v>308.73430000000002</v>
+      </c>
+      <c r="I10">
+        <v>61.036799999999999</v>
+      </c>
+      <c r="J10">
+        <v>86010</v>
+      </c>
+    </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>100000</v>
+      </c>
+      <c r="C11">
+        <v>399.90960000000001</v>
+      </c>
+      <c r="D11">
+        <v>-281897.38069999998</v>
+      </c>
+      <c r="E11">
+        <v>1454462.263</v>
+      </c>
+      <c r="F11">
+        <v>-8.8700000000000001E-2</v>
+      </c>
+      <c r="G11">
+        <v>77.228099999999998</v>
+      </c>
+      <c r="H11">
+        <v>308.53489999999999</v>
+      </c>
+      <c r="I11">
+        <v>61.041200000000003</v>
+      </c>
+      <c r="J11">
+        <v>85564</v>
+      </c>
+      <c r="K11">
+        <f>(D11-J11*(D10/J10))/F8</f>
+        <v>3.6309316385856584E-2</v>
+      </c>
+      <c r="L11">
+        <f>K11*16.02</f>
+        <v>0.58167524850142249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C15" t="s">
         <v>23</v>
       </c>
-      <c r="D11">
+      <c r="D15">
         <v>20</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E15" t="s">
         <v>24</v>
       </c>
-      <c r="F11">
-        <f>4*3.1416*D11^2</f>
+      <c r="F15">
+        <f>4*3.1416*D15^2</f>
         <v>5026.5599999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C16" t="s">
         <v>4</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D16" t="s">
         <v>5</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E16" t="s">
         <v>6</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F16" t="s">
         <v>7</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G16" t="s">
         <v>16</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H16" t="s">
         <v>17</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I16" t="s">
         <v>18</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J16" t="s">
         <v>13</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K16" t="s">
         <v>20</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B13">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17">
         <v>50000</v>
       </c>
-      <c r="C13">
+      <c r="C17">
         <v>400.00389999999999</v>
       </c>
-      <c r="D13">
+      <c r="D17">
         <v>-630612.73080000002</v>
       </c>
-      <c r="E13">
+      <c r="E17">
         <v>3236191.1967000002</v>
       </c>
-      <c r="F13">
+      <c r="F17">
         <v>-5.7000000000000002E-2</v>
       </c>
-      <c r="G13">
+      <c r="G17">
         <v>102.9956</v>
       </c>
-      <c r="H13">
+      <c r="H17">
         <v>386.00920000000002</v>
       </c>
-      <c r="I13">
+      <c r="I17">
         <v>81.398799999999994</v>
       </c>
-      <c r="J13">
+      <c r="J17">
         <v>191300</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B14">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18">
         <v>100000</v>
       </c>
-      <c r="C14">
+      <c r="C18">
         <v>400.01150000000001</v>
       </c>
-      <c r="D14">
+      <c r="D18">
         <v>-623921.13800000004</v>
       </c>
-      <c r="E14">
+      <c r="E18">
         <v>3234329.8807000001</v>
       </c>
-      <c r="F14">
+      <c r="F18">
         <v>-2.1299999999999999E-2</v>
       </c>
-      <c r="G14">
+      <c r="G18">
         <v>102.98</v>
       </c>
-      <c r="H14">
+      <c r="H18">
         <v>385.84899999999999</v>
       </c>
-      <c r="I14">
+      <c r="I18">
         <v>81.397999999999996</v>
       </c>
-      <c r="J14">
+      <c r="J18">
         <v>189327</v>
       </c>
-      <c r="K14">
-        <f>(D14-J14*(D13/J13))/F11</f>
+      <c r="K18">
+        <f>(D18-J18*(D17/J17))/F15</f>
         <v>3.7337247158459541E-2</v>
       </c>
-      <c r="L14">
-        <f>K14*16.02</f>
+      <c r="L18">
+        <f>K18*16.02</f>
         <v>0.59814269947852183</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D20" t="s">
         <v>28</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E20" t="s">
         <v>29</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="C17">
+      <c r="C21">
         <v>60</v>
       </c>
-      <c r="D17">
+      <c r="D21">
         <v>32</v>
       </c>
-      <c r="E17">
+      <c r="E21">
         <v>32</v>
       </c>
-      <c r="F17">
-        <f>4*3.1416*(((C17*D17)^1.6 + (C17*E17)^1.6 + (D17*E17)^1.6)/3)^(1/1.6)</f>
+      <c r="F21">
+        <f>4*3.1416*(((C21*D21)^1.6 + (C21*E21)^1.6 + (D21*E21)^1.6)/3)^(1/1.6)</f>
         <v>20799.034322762353</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C22" t="s">
         <v>4</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D22" t="s">
         <v>5</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E22" t="s">
         <v>6</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F22" t="s">
         <v>7</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G22" t="s">
         <v>16</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H22" t="s">
         <v>17</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I22" t="s">
         <v>18</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J22" t="s">
         <v>13</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K22" t="s">
         <v>20</v>
       </c>
-      <c r="L18" t="s">
+      <c r="L22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23">
         <v>50000</v>
       </c>
-      <c r="C19">
+      <c r="C23">
         <v>400.00389999999999</v>
       </c>
-      <c r="D19">
+      <c r="D23">
         <v>-630612.73080000002</v>
       </c>
-      <c r="E19">
+      <c r="E23">
         <v>3236191.1967000002</v>
       </c>
-      <c r="F19">
+      <c r="F23">
         <v>-5.7000000000000002E-2</v>
       </c>
-      <c r="G19">
+      <c r="G23">
         <v>102.9956</v>
       </c>
-      <c r="H19">
+      <c r="H23">
         <v>386.00920000000002</v>
       </c>
-      <c r="I19">
+      <c r="I23">
         <v>81.398799999999994</v>
       </c>
-      <c r="J19">
+      <c r="J23">
         <v>191300</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B24">
         <v>100000</v>
       </c>
-      <c r="C20">
+      <c r="C24">
         <v>400.0949</v>
       </c>
-      <c r="D20">
+      <c r="D24">
         <v>-624323.48419999995</v>
       </c>
-      <c r="E20">
+      <c r="E24">
         <v>3234012.8794</v>
       </c>
-      <c r="F20">
+      <c r="F24">
         <v>-1.77E-2</v>
       </c>
-      <c r="G20">
+      <c r="G24">
         <v>102.9799</v>
       </c>
-      <c r="H20">
+      <c r="H24">
         <v>385.81279999999998</v>
       </c>
-      <c r="I20">
+      <c r="I24">
         <v>81.397800000000004</v>
       </c>
-      <c r="J20">
+      <c r="J24">
         <v>189445</v>
       </c>
-      <c r="K20">
-        <f>(D20-J20*(D19/J19))/F17</f>
+      <c r="K24">
+        <f>(D24-J24*(D23/J23))/F21</f>
         <v>8.3808675403238917E-3</v>
       </c>
-      <c r="L20">
-        <f>K20*16.02</f>
+      <c r="L24">
+        <f>K24*16.02</f>
         <v>0.13426149799598874</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D26" t="s">
         <v>28</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E26" t="s">
         <v>29</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>31</v>
       </c>
-      <c r="C23">
+      <c r="C27">
         <v>32</v>
       </c>
-      <c r="D23">
+      <c r="D27">
         <v>16</v>
       </c>
-      <c r="E23">
+      <c r="E27">
         <v>16</v>
       </c>
-      <c r="F23">
-        <f>4*3.1416*(((C23*D23)^1.6 + (C23*E23)^1.6 + (D23*E23)^1.6)/3)^(1/1.6)</f>
+      <c r="F27">
+        <f>4*3.1416*(((C27*D27)^1.6 + (C27*E27)^1.6 + (D27*E27)^1.6)/3)^(1/1.6)</f>
         <v>5493.677677504219</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>3</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C28" t="s">
         <v>4</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D28" t="s">
         <v>5</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E28" t="s">
         <v>6</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F28" t="s">
         <v>7</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G28" t="s">
         <v>16</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H28" t="s">
         <v>17</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I28" t="s">
         <v>18</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J28" t="s">
         <v>13</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K28" t="s">
         <v>20</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B29">
         <v>50000</v>
       </c>
-      <c r="C25">
+      <c r="C29">
         <v>400.00389999999999</v>
       </c>
-      <c r="D25">
+      <c r="D29">
         <v>-630612.73080000002</v>
       </c>
-      <c r="E25">
+      <c r="E29">
         <v>3236191.1967000002</v>
       </c>
-      <c r="F25">
+      <c r="F29">
         <v>-5.7000000000000002E-2</v>
       </c>
-      <c r="G25">
+      <c r="G29">
         <v>102.9956</v>
       </c>
-      <c r="H25">
+      <c r="H29">
         <v>386.00920000000002</v>
       </c>
-      <c r="I25">
+      <c r="I29">
         <v>81.398799999999994</v>
       </c>
-      <c r="J25">
+      <c r="J29">
         <v>191300</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B26">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B30">
         <v>100000</v>
       </c>
-      <c r="C26">
+      <c r="C30">
         <v>399.91910000000001</v>
       </c>
-      <c r="D26">
+      <c r="D30">
         <v>-629771.24230000004</v>
       </c>
-      <c r="E26">
+      <c r="E30">
         <v>3235613.8099000002</v>
       </c>
-      <c r="F26">
+      <c r="F30">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="G26">
+      <c r="G30">
         <v>102.9926</v>
       </c>
-      <c r="H26">
+      <c r="H30">
         <v>385.94869999999997</v>
       </c>
-      <c r="I26">
+      <c r="I30">
         <v>81.3994</v>
       </c>
-      <c r="J26">
+      <c r="J30">
         <v>191058</v>
       </c>
-      <c r="K26">
-        <f>(D26-J26*(D25/J25))/F23</f>
+      <c r="K30">
+        <f>(D30-J30*(D29/J29))/F27</f>
         <v>7.9628379344240906E-3</v>
       </c>
-      <c r="L26">
-        <f>K26*16.02</f>
+      <c r="L30">
+        <f>K30*16.02</f>
         <v>0.12756466370947392</v>
       </c>
     </row>
@@ -1441,25 +1566,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF0ADD3-D49A-AE49-BE1C-B6A7B78890CB}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -1467,7 +1592,7 @@
         <v>-2.4515112000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>32</v>
       </c>
@@ -1485,7 +1610,7 @@
         <v>5026.5599999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>3</v>
       </c>
@@ -1519,8 +1644,11 @@
       <c r="L10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>50000</v>
       </c>
@@ -1555,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>100000</v>
       </c>
@@ -1588,6 +1716,10 @@
       </c>
       <c r="L12">
         <v>738</v>
+      </c>
+      <c r="M12">
+        <f>L12/K12</f>
+        <v>1.9472295514511873</v>
       </c>
     </row>
   </sheetData>

--- a/USHPRR/Al_interfaces.xlsx
+++ b/USHPRR/Al_interfaces.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48157492-456D-724D-AD73-98A9B72B2BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A1647C-15F3-2647-8B7E-5EED45359D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5300" yWindow="3440" windowWidth="21900" windowHeight="17440" activeTab="1" xr2:uid="{556651BE-7C6C-1F46-B546-EA16340C0BD9}"/>
+    <workbookView xWindow="780" yWindow="3300" windowWidth="21900" windowHeight="17440" xr2:uid="{556651BE-7C6C-1F46-B546-EA16340C0BD9}"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -161,8 +161,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -190,8 +198,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CAD260-69B9-8946-951A-5EF29EE895EC}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -763,85 +772,96 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23">
+      <c r="B23" s="1">
         <v>50000</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>399.95940000000002</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>-630615.02419999999</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>3236262.1782999998</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>-1.9900000000000001E-2</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>102.9957</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>386.01639999999998</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="1">
         <v>81.399000000000001</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="1">
         <v>191300</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="1">
         <f>2*I23*G23</f>
         <v>16767.4939686</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="1">
         <f>(D23-D10*J23)/K23</f>
         <v>3.7799236796318858E-2</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="1">
         <f>(L23*1.602E-19)/(1E-20)</f>
         <v>0.60554377347702815</v>
       </c>
@@ -876,16 +896,16 @@
         <v>50000</v>
       </c>
       <c r="C27">
-        <v>399.94009999999997</v>
+        <v>400.10539999999997</v>
       </c>
       <c r="D27">
-        <v>-29418.134399999999</v>
+        <v>-29417.737700000001</v>
       </c>
       <c r="E27">
-        <v>282724.6667</v>
+        <v>282721.60859999998</v>
       </c>
       <c r="F27">
-        <v>0.1384</v>
+        <v>-9.6199999999999994E-2</v>
       </c>
       <c r="G27">
         <v>12000</v>
@@ -905,15 +925,15 @@
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D29">
         <f>D27/$G$27</f>
-        <v>-2.4515112000000001</v>
+        <v>-2.4514781416666667</v>
       </c>
       <c r="E29">
         <f>E27/$G$27</f>
-        <v>23.560388891666666</v>
+        <v>23.560134049999998</v>
       </c>
       <c r="F29">
         <f>(E29*12)^(1/3)</f>
-        <v>6.5632845524668966</v>
+        <v>6.5632608883922421</v>
       </c>
     </row>
   </sheetData>
@@ -925,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98A2971-2751-BE4B-B26E-9EC0057145A7}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/USHPRR/Al_interfaces.xlsx
+++ b/USHPRR/Al_interfaces.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A1647C-15F3-2647-8B7E-5EED45359D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA40998D-5C23-1645-AC75-72B4AA8BA82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="3300" windowWidth="21900" windowHeight="17440" xr2:uid="{556651BE-7C6C-1F46-B546-EA16340C0BD9}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="41">
   <si>
     <t>Aluminum Interfaces</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>B_sphere2</t>
+  </si>
+  <si>
+    <t>GB 120</t>
+  </si>
+  <si>
+    <t>GB 190</t>
   </si>
 </sst>
 </file>
@@ -515,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CAD260-69B9-8946-951A-5EF29EE895EC}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -936,8 +942,199 @@
         <v>6.5632608883922421</v>
       </c>
     </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33" s="1">
+        <v>50000</v>
+      </c>
+      <c r="C33" s="1">
+        <v>399.99900000000002</v>
+      </c>
+      <c r="D33" s="1">
+        <v>-314198.77759999997</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1614376.4362000001</v>
+      </c>
+      <c r="F33" s="1">
+        <v>-2E-3</v>
+      </c>
+      <c r="G33" s="1">
+        <v>72.821700000000007</v>
+      </c>
+      <c r="H33" s="1">
+        <v>272.34620000000001</v>
+      </c>
+      <c r="I33" s="1">
+        <v>81.399699999999996</v>
+      </c>
+      <c r="J33" s="1">
+        <v>95360</v>
+      </c>
+      <c r="K33" s="1">
+        <f>2*I33*G33</f>
+        <v>11855.329066980001</v>
+      </c>
+      <c r="L33" s="1">
+        <f>(D33-D10*J33)/K33</f>
+        <v>3.9534639431091458E-2</v>
+      </c>
+      <c r="M33" s="1">
+        <f>(L33*1.602E-19)/(1E-20)</f>
+        <v>0.63334492368608519</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B37" s="1">
+        <v>50000</v>
+      </c>
+      <c r="C37" s="1">
+        <v>400.0394</v>
+      </c>
+      <c r="D37" s="1">
+        <v>-645624.72790000006</v>
+      </c>
+      <c r="E37" s="1">
+        <v>3312425.3007999999</v>
+      </c>
+      <c r="F37" s="1">
+        <v>-3.3300000000000003E-2</v>
+      </c>
+      <c r="G37" s="1">
+        <v>110.657</v>
+      </c>
+      <c r="H37" s="1">
+        <v>367.56150000000002</v>
+      </c>
+      <c r="I37" s="1">
+        <v>81.439899999999994</v>
+      </c>
+      <c r="J37" s="1">
+        <v>195840</v>
+      </c>
+      <c r="K37" s="1">
+        <f>2*I37*G37</f>
+        <v>18023.790028599997</v>
+      </c>
+      <c r="L37" s="1">
+        <f>(D37-D10*J37)/K37</f>
+        <v>3.357326838804129E-2</v>
+      </c>
+      <c r="M37" s="1">
+        <f>(L37*1.602E-19)/(1E-20)</f>
+        <v>0.5378437595764215</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/USHPRR/Al_interfaces.xlsx
+++ b/USHPRR/Al_interfaces.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA40998D-5C23-1645-AC75-72B4AA8BA82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAE490B-880A-6C4C-B395-A419D6A81381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="3300" windowWidth="21900" windowHeight="17440" xr2:uid="{556651BE-7C6C-1F46-B546-EA16340C0BD9}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="42">
   <si>
     <t>Aluminum Interfaces</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>GB 190</t>
+  </si>
+  <si>
+    <t>GB 130 I-L</t>
   </si>
 </sst>
 </file>
@@ -204,9 +207,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CAD260-69B9-8946-951A-5EF29EE895EC}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -873,173 +877,157 @@
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2">
+        <v>191300</v>
+      </c>
+      <c r="K27" s="2">
+        <f>2*I27*G27</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="2" t="e">
+        <f>(D27-D14*J27)/K27</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M27" s="2" t="e">
+        <f>(L27*1.602E-19)/(1E-20)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>3</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C30" t="s">
         <v>4</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D30" t="s">
         <v>5</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E30" t="s">
         <v>6</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F30" t="s">
         <v>7</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31">
         <v>50000</v>
       </c>
-      <c r="C27">
+      <c r="C31">
         <v>400.10539999999997</v>
       </c>
-      <c r="D27">
+      <c r="D31">
         <v>-29417.737700000001</v>
       </c>
-      <c r="E27">
+      <c r="E31">
         <v>282721.60859999998</v>
       </c>
-      <c r="F27">
+      <c r="F31">
         <v>-9.6199999999999994E-2</v>
       </c>
-      <c r="G27">
+      <c r="G31">
         <v>12000</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D28" t="s">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
         <v>8</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E32" t="s">
         <v>9</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="D29">
-        <f>D27/$G$27</f>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <f>D31/$G$31</f>
         <v>-2.4514781416666667</v>
       </c>
-      <c r="E29">
-        <f>E27/$G$27</f>
+      <c r="E33">
+        <f>E31/$G$31</f>
         <v>23.560134049999998</v>
       </c>
-      <c r="F29">
-        <f>(E29*12)^(1/3)</f>
+      <c r="F33">
+        <f>(E33*12)^(1/3)</f>
         <v>6.5632608883922421</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B33" s="1">
-        <v>50000</v>
-      </c>
-      <c r="C33" s="1">
-        <v>399.99900000000002</v>
-      </c>
-      <c r="D33" s="1">
-        <v>-314198.77759999997</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1614376.4362000001</v>
-      </c>
-      <c r="F33" s="1">
-        <v>-2E-3</v>
-      </c>
-      <c r="G33" s="1">
-        <v>72.821700000000007</v>
-      </c>
-      <c r="H33" s="1">
-        <v>272.34620000000001</v>
-      </c>
-      <c r="I33" s="1">
-        <v>81.399699999999996</v>
-      </c>
-      <c r="J33" s="1">
-        <v>95360</v>
-      </c>
-      <c r="K33" s="1">
-        <f>2*I33*G33</f>
-        <v>11855.329066980001</v>
-      </c>
-      <c r="L33" s="1">
-        <f>(D33-D10*J33)/K33</f>
-        <v>3.9534639431091458E-2</v>
-      </c>
-      <c r="M33" s="1">
-        <f>(L33*1.602E-19)/(1E-20)</f>
-        <v>0.63334492368608519</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1096,39 +1084,134 @@
         <v>50000</v>
       </c>
       <c r="C37" s="1">
-        <v>400.0394</v>
+        <v>399.99900000000002</v>
       </c>
       <c r="D37" s="1">
-        <v>-645624.72790000006</v>
+        <v>-314198.77759999997</v>
       </c>
       <c r="E37" s="1">
-        <v>3312425.3007999999</v>
+        <v>1614376.4362000001</v>
       </c>
       <c r="F37" s="1">
-        <v>-3.3300000000000003E-2</v>
+        <v>-2E-3</v>
       </c>
       <c r="G37" s="1">
-        <v>110.657</v>
+        <v>72.821700000000007</v>
       </c>
       <c r="H37" s="1">
-        <v>367.56150000000002</v>
+        <v>272.34620000000001</v>
       </c>
       <c r="I37" s="1">
-        <v>81.439899999999994</v>
+        <v>81.399699999999996</v>
       </c>
       <c r="J37" s="1">
-        <v>195840</v>
+        <v>95360</v>
       </c>
       <c r="K37" s="1">
         <f>2*I37*G37</f>
-        <v>18023.790028599997</v>
+        <v>11855.329066980001</v>
       </c>
       <c r="L37" s="1">
         <f>(D37-D10*J37)/K37</f>
-        <v>3.357326838804129E-2</v>
+        <v>3.9534639431091458E-2</v>
       </c>
       <c r="M37" s="1">
         <f>(L37*1.602E-19)/(1E-20)</f>
+        <v>0.63334492368608519</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B41" s="1">
+        <v>50000</v>
+      </c>
+      <c r="C41" s="1">
+        <v>400.0394</v>
+      </c>
+      <c r="D41" s="1">
+        <v>-645624.72790000006</v>
+      </c>
+      <c r="E41" s="1">
+        <v>3312425.3007999999</v>
+      </c>
+      <c r="F41" s="1">
+        <v>-3.3300000000000003E-2</v>
+      </c>
+      <c r="G41" s="1">
+        <v>110.657</v>
+      </c>
+      <c r="H41" s="1">
+        <v>367.56150000000002</v>
+      </c>
+      <c r="I41" s="1">
+        <v>81.439899999999994</v>
+      </c>
+      <c r="J41" s="1">
+        <v>195840</v>
+      </c>
+      <c r="K41" s="1">
+        <f>2*I41*G41</f>
+        <v>18023.790028599997</v>
+      </c>
+      <c r="L41" s="1">
+        <f>(D41-D10*J41)/K41</f>
+        <v>3.357326838804129E-2</v>
+      </c>
+      <c r="M41" s="1">
+        <f>(L41*1.602E-19)/(1E-20)</f>
         <v>0.5378437595764215</v>
       </c>
     </row>
